--- a/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
+++ b/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-50.57112881019052</v>
+        <v>-50.60846977886725</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-50.8516876085554</v>
+        <v>-56.57899049951098</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-52.08026451866755</v>
+        <v>-56.70012782284184</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-51.24150226887841</v>
+        <v>-51.3190048313476</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.38216226152273</v>
+        <v>-53.53574314931394</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-54.4649894743224</v>
+        <v>-51.45245803208397</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-54.13439386830038</v>
+        <v>-50.84978009483323</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-52.18648965066108</v>
+        <v>-52.78056905076642</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-51.33456789357884</v>
+        <v>-50.72693263320177</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-50.8620399989999</v>
+        <v>-51.18808816686393</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-50.83317550872169</v>
+        <v>-51.10838725062213</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-50.58693564125064</v>
+        <v>-51.52030125350101</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-51.28863830513423</v>
+        <v>-50.66198600129232</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-51.96210361060524</v>
+        <v>-50.90773058838666</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-51.0489321448016</v>
+        <v>-50.54262977960997</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.93764633358236</v>
+        <v>-53.62522215662013</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-52.17044266066593</v>
+        <v>-51.08849918227844</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-51.01489111955902</v>
+        <v>-51.14453057180443</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-50.79283971581894</v>
+        <v>-50.60552801404146</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-50.67897144381247</v>
+        <v>-51.1482862126924</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-50.87753215417963</v>
+        <v>-50.55477923335322</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-54.88455872543459</v>
+        <v>-50.76729323637318</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-50.76308856084687</v>
+        <v>-50.74717232088503</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-51.07308094957551</v>
+        <v>-51.95522135413243</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-51.62307507366101</v>
+        <v>-53.23139216740683</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-50.89197600919181</v>
+        <v>-55.6510419413589</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-51.57480727809289</v>
+        <v>-51.03375850888617</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-54.80023380828131</v>
+        <v>-51.73152095096322</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-53.46235664557273</v>
+        <v>-51.44146183761453</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-55.57068612704087</v>
+        <v>-50.85199045543269</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-55.49545965465582</v>
+        <v>-50.91106015338611</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-58.19696015177409</v>
+        <v>-50.5686576535829</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-65.11432447620564</v>
+        <v>-51.76035235712109</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-55.44742431919779</v>
+        <v>-51.87355181510999</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-53.73100898279188</v>
+        <v>-50.67447343378794</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-52.37472357464095</v>
+        <v>-50.86663983714308</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-54.72380896724357</v>
+        <v>-51.04950747986996</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-53.01408185401882</v>
+        <v>-51.18731493877899</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-52.91980569511993</v>
+        <v>-50.66679592360457</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-52.7643779856171</v>
+        <v>-50.61639028931403</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-51.5440561553662</v>
+        <v>-50.72791744315207</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +704,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-50.59328116617004</v>
+        <v>-50.86367261159147</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-51.42959364735107</v>
+        <v>-51.15879826773478</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-51.47516182353991</v>
+        <v>-50.94907946550251</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-51.99144335168396</v>
+        <v>-50.78898166760086</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-50.64527955851879</v>
+        <v>-50.87254908009841</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-51.12941206303274</v>
+        <v>-51.15083208315191</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-51.98600255278076</v>
+        <v>-50.98993461980573</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-50.97531713055359</v>
+        <v>-51.92976151852923</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-50.78649690598475</v>
+        <v>-55.41284700086335</v>
       </c>
     </row>
     <row r="52">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-50.83257185346037</v>
+        <v>-51.92340853988916</v>
       </c>
     </row>
     <row r="53">
@@ -784,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-52.29770192015518</v>
+        <v>-56.16718428142686</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-50.92878705663018</v>
+        <v>-53.72407741153646</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-51.92867634057919</v>
+        <v>-55.19978882900973</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-51.02408952972869</v>
+        <v>-54.41480267866554</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-51.13268485297522</v>
+        <v>-51.1845856815763</v>
       </c>
     </row>
     <row r="58">
@@ -824,7 +824,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-50.60981909207761</v>
+        <v>-52.17346643883701</v>
       </c>
     </row>
     <row r="59">
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-51.36204364016015</v>
+        <v>-51.53764908860782</v>
       </c>
     </row>
     <row r="60">
@@ -840,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-50.69762064890802</v>
+        <v>-51.36270849086569</v>
       </c>
     </row>
     <row r="61">
@@ -848,7 +848,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-50.89273958329545</v>
+        <v>-54.75258294139029</v>
       </c>
     </row>
     <row r="62">
@@ -856,7 +856,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-51.17492542948554</v>
+        <v>-51.36771885882441</v>
       </c>
     </row>
     <row r="63">
@@ -864,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-50.79817771222776</v>
+        <v>-50.75988709672492</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-69.27483796155421</v>
+        <v>-51.05624979930779</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-51.48513805175241</v>
+        <v>-51.2046658912861</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-51.3925794734608</v>
+        <v>-58.43551092800175</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-51.46966747162602</v>
+        <v>-50.60797757148989</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-51.58087475636038</v>
+        <v>-50.66211191662335</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +912,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-51.52430050545811</v>
+        <v>-50.50118110385662</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-50.77538924891452</v>
+        <v>-50.67707591215984</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-50.70948383035935</v>
+        <v>-50.65328931599537</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-50.87685246960429</v>
+        <v>-50.9092138257606</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-50.79149072175908</v>
+        <v>-51.9909427874744</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-50.86632690022014</v>
+        <v>-50.54525018475415</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-50.94197601924264</v>
+        <v>-50.72760997354452</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-65.98922232072368</v>
+        <v>-50.4885498097346</v>
       </c>
     </row>
     <row r="77">
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-51.2583246970481</v>
+        <v>-51.174319740683</v>
       </c>
     </row>
     <row r="78">
@@ -984,7 +984,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-51.5310761034068</v>
+        <v>-50.56541130270133</v>
       </c>
     </row>
     <row r="79">
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-50.62004816029471</v>
+        <v>-51.13484036481344</v>
       </c>
     </row>
     <row r="80">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-50.73963245822991</v>
+        <v>-50.53851087554102</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-50.86310031424428</v>
+        <v>-50.87824667558626</v>
       </c>
     </row>
     <row r="82">
@@ -1016,7 +1016,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-51.00349433333394</v>
+        <v>-51.03851706098135</v>
       </c>
     </row>
     <row r="83">
@@ -1024,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-50.9218576408884</v>
+        <v>-50.84353251588313</v>
       </c>
     </row>
     <row r="84">
@@ -1032,7 +1032,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-51.08065774661895</v>
+        <v>-72.88202926031788</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-51.23172225912013</v>
+        <v>-53.24069776345977</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-51.18398028131404</v>
+        <v>-51.27158566102182</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-57.02594023098292</v>
+        <v>-53.03666248806236</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-51.15139430559717</v>
+        <v>-51.36318408503839</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-51.01880573142048</v>
+        <v>-50.82722854513008</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-50.79675578991481</v>
+        <v>-50.6307446943073</v>
       </c>
     </row>
     <row r="91">
@@ -1088,7 +1088,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-51.23279510587327</v>
+        <v>-50.91441864032755</v>
       </c>
     </row>
     <row r="92">
@@ -1096,7 +1096,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-50.61054829377289</v>
+        <v>-50.83342421739293</v>
       </c>
     </row>
     <row r="93">
@@ -1104,7 +1104,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-50.9203253306924</v>
+        <v>-52.03029331389839</v>
       </c>
     </row>
     <row r="94">
@@ -1112,7 +1112,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-50.82774994170275</v>
+        <v>-50.88307996944501</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-50.71596983555006</v>
+        <v>-51.01271969853788</v>
       </c>
     </row>
     <row r="96">
@@ -1128,7 +1128,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-52.4875134498902</v>
+        <v>-64.73774519600357</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-57.61946700822257</v>
+        <v>-52.13360862912636</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-53.76816410917236</v>
+        <v>-53.10223602046989</v>
       </c>
     </row>
     <row r="99">
@@ -1152,7 +1152,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-52.42681231422054</v>
+        <v>-51.18764320481382</v>
       </c>
     </row>
     <row r="100">
@@ -1160,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-51.70819928626258</v>
+        <v>-51.54910979611134</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-82.82465140257756</v>
+        <v>-50.59294581820838</v>
       </c>
     </row>
     <row r="102">
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-52.79363289673419</v>
+        <v>-50.69389303298932</v>
       </c>
     </row>
     <row r="103">
@@ -1184,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-51.15705415266223</v>
+        <v>-52.17977145009007</v>
       </c>
     </row>
     <row r="104">
@@ -1192,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-50.78836009379366</v>
+        <v>-50.79349925120854</v>
       </c>
     </row>
     <row r="105">
@@ -1200,7 +1200,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-50.96634670780248</v>
+        <v>-51.47981737956438</v>
       </c>
     </row>
     <row r="106">
@@ -1208,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-50.72153468335278</v>
+        <v>-51.07599063563683</v>
       </c>
     </row>
     <row r="107">
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-50.87753887820914</v>
+        <v>-56.02624817456247</v>
       </c>
     </row>
     <row r="108">
@@ -1224,7 +1224,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-50.54385396740546</v>
+        <v>-52.8274765792887</v>
       </c>
     </row>
     <row r="109">
@@ -1232,7 +1232,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-50.8969246532878</v>
+        <v>-50.59491163630791</v>
       </c>
     </row>
     <row r="110">
@@ -1240,7 +1240,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-51.17823751786428</v>
+        <v>-50.77834953478703</v>
       </c>
     </row>
     <row r="111">
@@ -1248,7 +1248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-50.90893173287636</v>
+        <v>-51.30546137448844</v>
       </c>
     </row>
     <row r="112">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-52.420392718058</v>
+        <v>-50.66925503285339</v>
       </c>
     </row>
     <row r="113">
@@ -1264,7 +1264,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-51.38886488077943</v>
+        <v>-50.80645785049383</v>
       </c>
     </row>
     <row r="114">
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-50.81278622300827</v>
+        <v>-50.65678107252599</v>
       </c>
     </row>
     <row r="115">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-51.19497820877286</v>
+        <v>-50.92146740563071</v>
       </c>
     </row>
     <row r="116">
@@ -1288,7 +1288,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-51.21753681112654</v>
+        <v>-53.02816109322143</v>
       </c>
     </row>
     <row r="117">
@@ -1296,7 +1296,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-50.88791487180816</v>
+        <v>-55.31227737234997</v>
       </c>
     </row>
     <row r="118">
@@ -1304,7 +1304,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-51.16785225819305</v>
+        <v>-51.55022197073745</v>
       </c>
     </row>
     <row r="119">
@@ -1312,7 +1312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-50.55547767445866</v>
+        <v>-50.82712188881664</v>
       </c>
     </row>
     <row r="120">
@@ -1320,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-51.17497221347963</v>
+        <v>-50.53820277816915</v>
       </c>
     </row>
     <row r="121">
@@ -1328,7 +1328,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-50.55230889675293</v>
+        <v>-53.39258435241128</v>
       </c>
     </row>
     <row r="122">
@@ -1336,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-52.50951613926628</v>
+        <v>-51.0181415451821</v>
       </c>
     </row>
     <row r="123">
@@ -1344,7 +1344,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-52.08955048683109</v>
+        <v>-50.63220153501256</v>
       </c>
     </row>
     <row r="124">
@@ -1352,7 +1352,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-51.10041184359758</v>
+        <v>-56.62623413936571</v>
       </c>
     </row>
     <row r="125">
@@ -1360,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-50.98986324306474</v>
+        <v>-50.70378944759055</v>
       </c>
     </row>
     <row r="126">
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-51.13056104589764</v>
+        <v>-50.50784271756522</v>
       </c>
     </row>
     <row r="127">
@@ -1376,7 +1376,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-51.53716544334837</v>
+        <v>-50.71006678722706</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1384,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-51.79612750063629</v>
+        <v>-50.60658699062859</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1392,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-50.77015168196134</v>
+        <v>-50.59757534737385</v>
       </c>
     </row>
     <row r="130">
@@ -1400,7 +1400,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-51.07068504255392</v>
+        <v>-51.2522602610488</v>
       </c>
     </row>
     <row r="131">
@@ -1408,7 +1408,167 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-53.00090068090548</v>
+        <v>-50.86566684268823</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>-52.07778497540568</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>-50.89673067218519</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>-50.69577762651801</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>-50.71234179547956</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>-51.83480605782293</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>-50.71508543142522</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>-50.81645461067635</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>-50.60324110887998</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>-50.94325625828219</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>-50.4966153369913</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>-50.61459624734263</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>-52.21397423206679</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>-52.1718732987888</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>-51.67050558126887</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>-51.79363784047706</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>-51.45594263913789</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>-53.24248454890141</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>-50.95099484373506</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>-50.81679006686953</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>-53.12195107685135</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
+++ b/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-50.60846977886725</v>
+        <v>-50.63610542395022</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-56.57899049951098</v>
+        <v>-57.5513780888062</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-56.70012782284184</v>
+        <v>-56.70845826741536</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-51.3190048313476</v>
+        <v>-51.45409507811856</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.53574314931394</v>
+        <v>-53.63619726715027</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-51.45245803208397</v>
+        <v>-51.34959681171622</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-50.84978009483323</v>
+        <v>-50.8941464946455</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-52.78056905076642</v>
+        <v>-51.08141803046156</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-50.72693263320177</v>
+        <v>-51.83345227564126</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-51.18808816686393</v>
+        <v>-51.04953875867296</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-51.10838725062213</v>
+        <v>-51.04013482878068</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-51.52030125350101</v>
+        <v>-50.58627520063942</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-50.66198600129232</v>
+        <v>-51.46915907437402</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-50.90773058838666</v>
+        <v>-50.92186593736061</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-50.54262977960997</v>
+        <v>-50.64788343521947</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-53.62522215662013</v>
+        <v>-50.77247576051065</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-51.08849918227844</v>
+        <v>-51.02779846891928</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-51.14453057180443</v>
+        <v>-51.08587494806219</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-50.60552801404146</v>
+        <v>-51.90090827013024</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-51.1482862126924</v>
+        <v>-50.91412149809042</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-50.55477923335322</v>
+        <v>-50.59136124787679</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-50.76729323637318</v>
+        <v>-50.78268622245533</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-50.74717232088503</v>
+        <v>-51.85480228456498</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-51.95522135413243</v>
+        <v>-51.42874356550535</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-53.23139216740683</v>
+        <v>-53.29158186261751</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-55.6510419413589</v>
+        <v>-58.88995991878204</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-51.03375850888617</v>
+        <v>-50.94402495685551</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-51.73152095096322</v>
+        <v>-51.76664509183926</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-51.44146183761453</v>
+        <v>-52.2092832827371</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-50.85199045543269</v>
+        <v>-50.81205033094276</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-50.91106015338611</v>
+        <v>-51.29931956244534</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-50.5686576535829</v>
+        <v>-50.63417220789168</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-51.76035235712109</v>
+        <v>-51.18231535114124</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-51.87355181510999</v>
+        <v>-50.94153582370749</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-50.67447343378794</v>
+        <v>-50.95595848806704</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-50.86663983714308</v>
+        <v>-50.82404081650647</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-51.04950747986996</v>
+        <v>-50.97745116418118</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-51.18731493877899</v>
+        <v>-51.21477030262746</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-50.66679592360457</v>
+        <v>-50.67391918719751</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-50.61639028931403</v>
+        <v>-50.56802690079764</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-50.72791744315207</v>
+        <v>-50.8596939253979</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +704,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-50.86367261159147</v>
+        <v>-50.87104322094537</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-51.15879826773478</v>
+        <v>-51.13329028047661</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-50.94907946550251</v>
+        <v>-51.00795236764642</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-50.78898166760086</v>
+        <v>-50.79996305562862</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-50.87254908009841</v>
+        <v>-50.93160351928024</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-51.15083208315191</v>
+        <v>-50.6958334745527</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-50.98993461980573</v>
+        <v>-51.28778685405089</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-51.92976151852923</v>
+        <v>-53.03984105204715</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-55.41284700086335</v>
+        <v>-54.06972061813241</v>
       </c>
     </row>
     <row r="52">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-51.92340853988916</v>
+        <v>-52.39107172905554</v>
       </c>
     </row>
     <row r="53">
@@ -784,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-56.16718428142686</v>
+        <v>-56.12361319354265</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-53.72407741153646</v>
+        <v>-53.68705668705222</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-55.19978882900973</v>
+        <v>-54.40461762369866</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-54.41480267866554</v>
+        <v>-53.48275631207147</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-51.1845856815763</v>
+        <v>-50.75265484305765</v>
       </c>
     </row>
     <row r="58">
@@ -824,7 +824,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-52.17346643883701</v>
+        <v>-52.06660052440701</v>
       </c>
     </row>
     <row r="59">
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-51.53764908860782</v>
+        <v>-51.61238193893583</v>
       </c>
     </row>
     <row r="60">
@@ -840,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-51.36270849086569</v>
+        <v>-51.22352763889516</v>
       </c>
     </row>
     <row r="61">
@@ -848,7 +848,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-54.75258294139029</v>
+        <v>-52.62279011968954</v>
       </c>
     </row>
     <row r="62">
@@ -856,7 +856,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-51.36771885882441</v>
+        <v>-53.067285371752</v>
       </c>
     </row>
     <row r="63">
@@ -864,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-50.75988709672492</v>
+        <v>-50.74903938042272</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-51.05624979930779</v>
+        <v>-50.95535505777536</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-51.2046658912861</v>
+        <v>-51.17967103008917</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-58.43551092800175</v>
+        <v>-51.7929434624553</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-50.60797757148989</v>
+        <v>-50.68895973782477</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-50.66211191662335</v>
+        <v>-50.6016046436258</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +912,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-50.50118110385662</v>
+        <v>-50.56677122087512</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-50.67707591215984</v>
+        <v>-50.67163767658021</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-50.65328931599537</v>
+        <v>-52.3025939435806</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-50.9092138257606</v>
+        <v>-50.91425970905545</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-51.9909427874744</v>
+        <v>-50.78136006232618</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-50.54525018475415</v>
+        <v>-50.97421847613028</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-50.72760997354452</v>
+        <v>-52.81889658541263</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-50.4885498097346</v>
+        <v>-50.49809123682593</v>
       </c>
     </row>
     <row r="77">
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-51.174319740683</v>
+        <v>-51.05839626439528</v>
       </c>
     </row>
     <row r="78">
@@ -984,7 +984,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-50.56541130270133</v>
+        <v>-50.57805613846028</v>
       </c>
     </row>
     <row r="79">
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-51.13484036481344</v>
+        <v>-53.77352886022246</v>
       </c>
     </row>
     <row r="80">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-50.53851087554102</v>
+        <v>-50.57846979191896</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-50.87824667558626</v>
+        <v>-50.93604548323675</v>
       </c>
     </row>
     <row r="82">
@@ -1016,7 +1016,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-51.03851706098135</v>
+        <v>-51.02232805833732</v>
       </c>
     </row>
     <row r="83">
@@ -1024,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-50.84353251588313</v>
+        <v>-50.93257378034784</v>
       </c>
     </row>
     <row r="84">
@@ -1032,7 +1032,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-72.88202926031788</v>
+        <v>-69.2069814977088</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-53.24069776345977</v>
+        <v>-52.97379440100363</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-51.27158566102182</v>
+        <v>-51.58702235678142</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-53.03666248806236</v>
+        <v>-52.59912724734069</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-51.36318408503839</v>
+        <v>-51.06730678449807</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-50.82722854513008</v>
+        <v>-50.78836667674057</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-50.6307446943073</v>
+        <v>-57.56725262079154</v>
       </c>
     </row>
     <row r="91">
@@ -1088,7 +1088,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-50.91441864032755</v>
+        <v>-52.07243153923814</v>
       </c>
     </row>
     <row r="92">
@@ -1096,7 +1096,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-50.83342421739293</v>
+        <v>-50.88796334392907</v>
       </c>
     </row>
     <row r="93">
@@ -1104,7 +1104,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-52.03029331389839</v>
+        <v>-50.86514331267842</v>
       </c>
     </row>
     <row r="94">
@@ -1112,7 +1112,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-50.88307996944501</v>
+        <v>-51.75682166366251</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-51.01271969853788</v>
+        <v>-51.01333845471282</v>
       </c>
     </row>
     <row r="96">
@@ -1128,7 +1128,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-64.73774519600357</v>
+        <v>-65.14982911937273</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-52.13360862912636</v>
+        <v>-52.01924110796451</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-53.10223602046989</v>
+        <v>-53.58609060761489</v>
       </c>
     </row>
     <row r="99">
@@ -1152,7 +1152,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-51.18764320481382</v>
+        <v>-50.73942170589433</v>
       </c>
     </row>
     <row r="100">
@@ -1160,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-51.54910979611134</v>
+        <v>-51.09245815803219</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-50.59294581820838</v>
+        <v>-50.62279565326025</v>
       </c>
     </row>
     <row r="102">
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-50.69389303298932</v>
+        <v>-50.73504756963804</v>
       </c>
     </row>
     <row r="103">
@@ -1184,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-52.17977145009007</v>
+        <v>-50.75209993096313</v>
       </c>
     </row>
     <row r="104">
@@ -1192,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-50.79349925120854</v>
+        <v>-50.95389408711658</v>
       </c>
     </row>
     <row r="105">
@@ -1200,7 +1200,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-51.47981737956438</v>
+        <v>-51.05180208694799</v>
       </c>
     </row>
     <row r="106">
@@ -1208,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-51.07599063563683</v>
+        <v>-51.02785719588696</v>
       </c>
     </row>
     <row r="107">
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-56.02624817456247</v>
+        <v>-57.6170027861</v>
       </c>
     </row>
     <row r="108">
@@ -1224,7 +1224,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-52.8274765792887</v>
+        <v>-50.5462118545291</v>
       </c>
     </row>
     <row r="109">
@@ -1232,7 +1232,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-50.59491163630791</v>
+        <v>-50.54070918502048</v>
       </c>
     </row>
     <row r="110">
@@ -1240,7 +1240,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-50.77834953478703</v>
+        <v>-50.84803270708413</v>
       </c>
     </row>
     <row r="111">
@@ -1248,7 +1248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-51.30546137448844</v>
+        <v>-51.06734159180873</v>
       </c>
     </row>
     <row r="112">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-50.66925503285339</v>
+        <v>-50.91910370833544</v>
       </c>
     </row>
     <row r="113">
@@ -1264,7 +1264,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-50.80645785049383</v>
+        <v>-51.72157672231078</v>
       </c>
     </row>
     <row r="114">
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-50.65678107252599</v>
+        <v>-52.54933462290051</v>
       </c>
     </row>
     <row r="115">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-50.92146740563071</v>
+        <v>-52.69155486692478</v>
       </c>
     </row>
     <row r="116">
@@ -1288,7 +1288,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-53.02816109322143</v>
+        <v>-55.23163489399114</v>
       </c>
     </row>
     <row r="117">
@@ -1296,7 +1296,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-55.31227737234997</v>
+        <v>-55.33046459429372</v>
       </c>
     </row>
     <row r="118">
@@ -1304,7 +1304,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-51.55022197073745</v>
+        <v>-51.34281803535512</v>
       </c>
     </row>
     <row r="119">
@@ -1312,7 +1312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-50.82712188881664</v>
+        <v>-50.91355354715459</v>
       </c>
     </row>
     <row r="120">
@@ -1320,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-50.53820277816915</v>
+        <v>-50.57298083919911</v>
       </c>
     </row>
     <row r="121">
@@ -1328,7 +1328,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-53.39258435241128</v>
+        <v>-50.67717616416629</v>
       </c>
     </row>
     <row r="122">
@@ -1336,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-51.0181415451821</v>
+        <v>-50.99777469755689</v>
       </c>
     </row>
     <row r="123">
@@ -1344,7 +1344,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-50.63220153501256</v>
+        <v>-50.65794170480023</v>
       </c>
     </row>
     <row r="124">
@@ -1352,7 +1352,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-56.62623413936571</v>
+        <v>-50.65880564971819</v>
       </c>
     </row>
     <row r="125">
@@ -1360,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-50.70378944759055</v>
+        <v>-50.69647257599288</v>
       </c>
     </row>
     <row r="126">
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-50.50784271756522</v>
+        <v>-50.53479339748519</v>
       </c>
     </row>
     <row r="127">
@@ -1376,7 +1376,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-50.71006678722706</v>
+        <v>-51.50392483538154</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1384,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-50.60658699062859</v>
+        <v>-50.64930666244372</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1392,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-50.59757534737385</v>
+        <v>-50.83459015705478</v>
       </c>
     </row>
     <row r="130">
@@ -1400,7 +1400,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-51.2522602610488</v>
+        <v>-51.14252221010263</v>
       </c>
     </row>
     <row r="131">
@@ -1408,7 +1408,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-50.86566684268823</v>
+        <v>-50.82147572485599</v>
       </c>
     </row>
     <row r="132">
@@ -1416,7 +1416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-52.07778497540568</v>
+        <v>-51.9825578714369</v>
       </c>
     </row>
     <row r="133">
@@ -1424,7 +1424,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-50.89673067218519</v>
+        <v>-50.84952879492972</v>
       </c>
     </row>
     <row r="134">
@@ -1432,7 +1432,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-50.69577762651801</v>
+        <v>-52.23389281696871</v>
       </c>
     </row>
     <row r="135">
@@ -1440,7 +1440,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-50.71234179547956</v>
+        <v>-51.17579619817788</v>
       </c>
     </row>
     <row r="136">
@@ -1448,7 +1448,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-51.83480605782293</v>
+        <v>-50.62476410479963</v>
       </c>
     </row>
     <row r="137">
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-50.71508543142522</v>
+        <v>-50.72393333833917</v>
       </c>
     </row>
     <row r="138">
@@ -1464,7 +1464,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-50.81645461067635</v>
+        <v>-50.80207847122284</v>
       </c>
     </row>
     <row r="139">
@@ -1472,7 +1472,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-50.60324110887998</v>
+        <v>-63.92285898933481</v>
       </c>
     </row>
     <row r="140">
@@ -1480,7 +1480,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-50.94325625828219</v>
+        <v>-50.91382244161417</v>
       </c>
     </row>
     <row r="141">
@@ -1488,7 +1488,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-50.4966153369913</v>
+        <v>-50.47395505840134</v>
       </c>
     </row>
     <row r="142">
@@ -1496,7 +1496,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-50.61459624734263</v>
+        <v>-50.62271751402866</v>
       </c>
     </row>
     <row r="143">
@@ -1504,7 +1504,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-52.21397423206679</v>
+        <v>-52.20028069020601</v>
       </c>
     </row>
     <row r="144">
@@ -1512,7 +1512,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-52.1718732987888</v>
+        <v>-51.13938645282066</v>
       </c>
     </row>
     <row r="145">
@@ -1520,7 +1520,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-51.67050558126887</v>
+        <v>-50.98097218011964</v>
       </c>
     </row>
     <row r="146">
@@ -1528,7 +1528,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-51.79363784047706</v>
+        <v>-51.02920283556803</v>
       </c>
     </row>
     <row r="147">
@@ -1536,7 +1536,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-51.45594263913789</v>
+        <v>-51.37279858608058</v>
       </c>
     </row>
     <row r="148">
@@ -1544,7 +1544,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-53.24248454890141</v>
+        <v>-53.73791910902297</v>
       </c>
     </row>
     <row r="149">
@@ -1552,7 +1552,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-50.95099484373506</v>
+        <v>-50.84362756173321</v>
       </c>
     </row>
     <row r="150">
@@ -1560,7 +1560,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-50.81679006686953</v>
+        <v>-51.18960952155044</v>
       </c>
     </row>
     <row r="151">
@@ -1568,7 +1568,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-53.12195107685135</v>
+        <v>-52.90700851710665</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
+++ b/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-50.63610542395022</v>
+        <v>-50.65002438850722</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-57.5513780888062</v>
+        <v>-57.29699885063077</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-56.70845826741536</v>
+        <v>-56.91712580599046</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-51.45409507811856</v>
+        <v>-51.36896746707402</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.63619726715027</v>
+        <v>-53.06601927200593</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-51.34959681171622</v>
+        <v>-52.30207705055154</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-50.8941464946455</v>
+        <v>-51.34483661994725</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-51.08141803046156</v>
+        <v>-51.76340966436231</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-51.83345227564126</v>
+        <v>-51.38100890085942</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-51.04953875867296</v>
+        <v>-51.1201588925793</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-51.04013482878068</v>
+        <v>-51.06895108511668</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-50.58627520063942</v>
+        <v>-50.56792682117859</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-51.46915907437402</v>
+        <v>-50.67197214200327</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-50.92186593736061</v>
+        <v>-50.95752914759925</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-50.64788343521947</v>
+        <v>-50.61344805582663</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.77247576051065</v>
+        <v>-50.71588904083051</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-51.02779846891928</v>
+        <v>-52.31850282507326</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-51.08587494806219</v>
+        <v>-51.1534090253917</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-51.90090827013024</v>
+        <v>-50.87430459515146</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-50.91412149809042</v>
+        <v>-52.23433903459757</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-50.59136124787679</v>
+        <v>-50.57476899414051</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-50.78268622245533</v>
+        <v>-50.7791888166532</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-51.85480228456498</v>
+        <v>-52.48882161292084</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-51.42874356550535</v>
+        <v>-51.89562928020457</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-53.29158186261751</v>
+        <v>-52.72345679479326</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-58.88995991878204</v>
+        <v>-55.86577632520775</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-50.94402495685551</v>
+        <v>-51.22209502492366</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-51.76664509183926</v>
+        <v>-51.70321393346803</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-52.2092832827371</v>
+        <v>-51.38785539705297</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-50.81205033094276</v>
+        <v>-50.941531970776</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-51.29931956244534</v>
+        <v>-50.88600489777897</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-50.63417220789168</v>
+        <v>-50.61522728939195</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-51.18231535114124</v>
+        <v>-51.31751630293729</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-50.94153582370749</v>
+        <v>-50.9311907034457</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-50.95595848806704</v>
+        <v>-51.00594702634995</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-50.82404081650647</v>
+        <v>-50.87653113389326</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-50.97745116418118</v>
+        <v>-51.06637713239052</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-51.21477030262746</v>
+        <v>-51.15753622508691</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-50.67391918719751</v>
+        <v>-50.73418306635111</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-50.56802690079764</v>
+        <v>-51.88696263888905</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-50.8596939253979</v>
+        <v>-50.73136106269721</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +704,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-50.87104322094537</v>
+        <v>-52.18833812271642</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-51.13329028047661</v>
+        <v>-50.62544351839684</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-51.00795236764642</v>
+        <v>-50.93313614558118</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-50.79996305562862</v>
+        <v>-50.9529230908988</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-50.93160351928024</v>
+        <v>-50.86139838696151</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-50.6958334745527</v>
+        <v>-50.94295080867514</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-51.28778685405089</v>
+        <v>-52.55912835452931</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-53.03984105204715</v>
+        <v>-52.09857071083969</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-54.06972061813241</v>
+        <v>-54.44651044031124</v>
       </c>
     </row>
     <row r="52">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-52.39107172905554</v>
+        <v>-52.210887646701</v>
       </c>
     </row>
     <row r="53">
@@ -784,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-56.12361319354265</v>
+        <v>-56.74255521514956</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-53.68705668705222</v>
+        <v>-53.41867149546837</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-54.40461762369866</v>
+        <v>-54.48329311398883</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-53.48275631207147</v>
+        <v>-53.03509379654097</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-50.75265484305765</v>
+        <v>-50.90761294210287</v>
       </c>
     </row>
     <row r="58">
@@ -824,7 +824,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-52.06660052440701</v>
+        <v>-51.92925756941087</v>
       </c>
     </row>
     <row r="59">
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-51.61238193893583</v>
+        <v>-51.47135262642374</v>
       </c>
     </row>
     <row r="60">
@@ -840,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-51.22352763889516</v>
+        <v>-51.38940400539745</v>
       </c>
     </row>
     <row r="61">
@@ -848,7 +848,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-52.62279011968954</v>
+        <v>-52.88695907535146</v>
       </c>
     </row>
     <row r="62">
@@ -856,7 +856,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-53.067285371752</v>
+        <v>-51.36863117401835</v>
       </c>
     </row>
     <row r="63">
@@ -864,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-50.74903938042272</v>
+        <v>-50.7750019628285</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-50.95535505777536</v>
+        <v>-51.05215596232205</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-51.17967103008917</v>
+        <v>-51.27528083996728</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-51.7929434624553</v>
+        <v>-50.66446385159031</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-50.68895973782477</v>
+        <v>-50.57067784537602</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-50.6016046436258</v>
+        <v>-50.66362556118467</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +912,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-50.56677122087512</v>
+        <v>-50.62230537098024</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-50.67163767658021</v>
+        <v>-50.78572031632451</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-52.3025939435806</v>
+        <v>-50.65497317711508</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-50.91425970905545</v>
+        <v>-50.88445884318109</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-50.78136006232618</v>
+        <v>-50.72825858500516</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-50.97421847613028</v>
+        <v>-50.4704081589405</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-52.81889658541263</v>
+        <v>-50.61161180239563</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-50.49809123682593</v>
+        <v>-50.52079841686588</v>
       </c>
     </row>
     <row r="77">
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-51.05839626439528</v>
+        <v>-51.4201744522169</v>
       </c>
     </row>
     <row r="78">
@@ -984,7 +984,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-50.57805613846028</v>
+        <v>-50.57801651147042</v>
       </c>
     </row>
     <row r="79">
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-53.77352886022246</v>
+        <v>-52.32248765034756</v>
       </c>
     </row>
     <row r="80">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-50.57846979191896</v>
+        <v>-50.63655450165072</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-50.93604548323675</v>
+        <v>-50.75528371051173</v>
       </c>
     </row>
     <row r="82">
@@ -1016,7 +1016,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-51.02232805833732</v>
+        <v>-51.1599941508208</v>
       </c>
     </row>
     <row r="83">
@@ -1024,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-50.93257378034784</v>
+        <v>-50.99433011080998</v>
       </c>
     </row>
     <row r="84">
@@ -1032,7 +1032,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-69.2069814977088</v>
+        <v>-72.54764812076799</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-52.97379440100363</v>
+        <v>-53.37958882659125</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-51.58702235678142</v>
+        <v>-61.46738109897865</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-52.59912724734069</v>
+        <v>-52.6878546936243</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-51.06730678449807</v>
+        <v>-51.07453407328359</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-50.78836667674057</v>
+        <v>-51.38637142631071</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-57.56725262079154</v>
+        <v>-50.70569645719919</v>
       </c>
     </row>
     <row r="91">
@@ -1088,7 +1088,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-52.07243153923814</v>
+        <v>-50.80926854771828</v>
       </c>
     </row>
     <row r="92">
@@ -1096,7 +1096,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-50.88796334392907</v>
+        <v>-50.7811603716528</v>
       </c>
     </row>
     <row r="93">
@@ -1104,7 +1104,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-50.86514331267842</v>
+        <v>-50.76965449464707</v>
       </c>
     </row>
     <row r="94">
@@ -1112,7 +1112,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-51.75682166366251</v>
+        <v>-50.83448959594114</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-51.01333845471282</v>
+        <v>-51.02879471793703</v>
       </c>
     </row>
     <row r="96">
@@ -1128,7 +1128,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-65.14982911937273</v>
+        <v>-65.44242946090175</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-52.01924110796451</v>
+        <v>-63.74624371155503</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-53.58609060761489</v>
+        <v>-54.93829170854386</v>
       </c>
     </row>
     <row r="99">
@@ -1152,7 +1152,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-50.73942170589433</v>
+        <v>-53.25310787009212</v>
       </c>
     </row>
     <row r="100">
@@ -1160,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-51.09245815803219</v>
+        <v>-50.89709838566693</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-50.62279565326025</v>
+        <v>-50.61141942887878</v>
       </c>
     </row>
     <row r="102">
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-50.73504756963804</v>
+        <v>-50.65674285853875</v>
       </c>
     </row>
     <row r="103">
@@ -1184,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-50.75209993096313</v>
+        <v>-50.74931347779822</v>
       </c>
     </row>
     <row r="104">
@@ -1192,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-50.95389408711658</v>
+        <v>-50.75887044264059</v>
       </c>
     </row>
     <row r="105">
@@ -1200,7 +1200,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-51.05180208694799</v>
+        <v>-51.95314621756623</v>
       </c>
     </row>
     <row r="106">
@@ -1208,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-51.02785719588696</v>
+        <v>-51.28389989640601</v>
       </c>
     </row>
     <row r="107">
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-57.6170027861</v>
+        <v>-56.57062691684811</v>
       </c>
     </row>
     <row r="108">
@@ -1224,7 +1224,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-50.5462118545291</v>
+        <v>-50.50906740531035</v>
       </c>
     </row>
     <row r="109">
@@ -1232,7 +1232,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-50.54070918502048</v>
+        <v>-50.53177164534349</v>
       </c>
     </row>
     <row r="110">
@@ -1240,7 +1240,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-50.84803270708413</v>
+        <v>-50.9235467310799</v>
       </c>
     </row>
     <row r="111">
@@ -1248,7 +1248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-51.06734159180873</v>
+        <v>-51.05868452222924</v>
       </c>
     </row>
     <row r="112">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-50.91910370833544</v>
+        <v>-50.68261140757015</v>
       </c>
     </row>
     <row r="113">
@@ -1264,7 +1264,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-51.72157672231078</v>
+        <v>-50.68226037293004</v>
       </c>
     </row>
     <row r="114">
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-52.54933462290051</v>
+        <v>-50.5893094434694</v>
       </c>
     </row>
     <row r="115">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-52.69155486692478</v>
+        <v>-50.63682721860383</v>
       </c>
     </row>
     <row r="116">
@@ -1288,7 +1288,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-55.23163489399114</v>
+        <v>-53.16108921204506</v>
       </c>
     </row>
     <row r="117">
@@ -1296,7 +1296,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-55.33046459429372</v>
+        <v>-55.55904161036828</v>
       </c>
     </row>
     <row r="118">
@@ -1304,7 +1304,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-51.34281803535512</v>
+        <v>-51.68079804730417</v>
       </c>
     </row>
     <row r="119">
@@ -1312,7 +1312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-50.91355354715459</v>
+        <v>-51.4529100295583</v>
       </c>
     </row>
     <row r="120">
@@ -1320,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-50.57298083919911</v>
+        <v>-50.55739311532064</v>
       </c>
     </row>
     <row r="121">
@@ -1328,7 +1328,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-50.67717616416629</v>
+        <v>-50.66807320420304</v>
       </c>
     </row>
     <row r="122">
@@ -1336,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-50.99777469755689</v>
+        <v>-51.60772946556137</v>
       </c>
     </row>
     <row r="123">
@@ -1344,7 +1344,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-50.65794170480023</v>
+        <v>-52.38543905689404</v>
       </c>
     </row>
     <row r="124">
@@ -1352,7 +1352,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-50.65880564971819</v>
+        <v>-50.7085846288681</v>
       </c>
     </row>
     <row r="125">
@@ -1360,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-50.69647257599288</v>
+        <v>-50.71922177732596</v>
       </c>
     </row>
     <row r="126">
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-50.53479339748519</v>
+        <v>-50.5567330747732</v>
       </c>
     </row>
     <row r="127">
@@ -1376,7 +1376,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-51.50392483538154</v>
+        <v>-60.19803846524266</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1384,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-50.64930666244372</v>
+        <v>-50.62615064630857</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1392,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-50.83459015705478</v>
+        <v>-50.60217392644028</v>
       </c>
     </row>
     <row r="130">
@@ -1400,7 +1400,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-51.14252221010263</v>
+        <v>-50.57159236627925</v>
       </c>
     </row>
     <row r="131">
@@ -1408,7 +1408,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-50.82147572485599</v>
+        <v>-50.84248738568959</v>
       </c>
     </row>
     <row r="132">
@@ -1416,7 +1416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-51.9825578714369</v>
+        <v>-52.01734376444182</v>
       </c>
     </row>
     <row r="133">
@@ -1424,7 +1424,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-50.84952879492972</v>
+        <v>-50.79049025453309</v>
       </c>
     </row>
     <row r="134">
@@ -1432,7 +1432,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-52.23389281696871</v>
+        <v>-51.68955956149956</v>
       </c>
     </row>
     <row r="135">
@@ -1440,7 +1440,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-51.17579619817788</v>
+        <v>-50.675518951645</v>
       </c>
     </row>
     <row r="136">
@@ -1448,7 +1448,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-50.62476410479963</v>
+        <v>-50.58695536464571</v>
       </c>
     </row>
     <row r="137">
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-50.72393333833917</v>
+        <v>-50.67585117768987</v>
       </c>
     </row>
     <row r="138">
@@ -1464,7 +1464,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-50.80207847122284</v>
+        <v>-50.80815758898925</v>
       </c>
     </row>
     <row r="139">
@@ -1472,7 +1472,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-63.92285898933481</v>
+        <v>-50.49066285448077</v>
       </c>
     </row>
     <row r="140">
@@ -1480,7 +1480,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-50.91382244161417</v>
+        <v>-50.91279777297783</v>
       </c>
     </row>
     <row r="141">
@@ -1488,7 +1488,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-50.47395505840134</v>
+        <v>-50.48165616521612</v>
       </c>
     </row>
     <row r="142">
@@ -1496,7 +1496,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-50.62271751402866</v>
+        <v>-50.65882492024765</v>
       </c>
     </row>
     <row r="143">
@@ -1504,7 +1504,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-52.20028069020601</v>
+        <v>-51.92426697362056</v>
       </c>
     </row>
     <row r="144">
@@ -1512,7 +1512,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-51.13938645282066</v>
+        <v>-51.12325556257571</v>
       </c>
     </row>
     <row r="145">
@@ -1520,7 +1520,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-50.98097218011964</v>
+        <v>-60.95907234666635</v>
       </c>
     </row>
     <row r="146">
@@ -1528,7 +1528,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-51.02920283556803</v>
+        <v>-51.02718024722703</v>
       </c>
     </row>
     <row r="147">
@@ -1536,7 +1536,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-51.37279858608058</v>
+        <v>-51.47312191585123</v>
       </c>
     </row>
     <row r="148">
@@ -1544,7 +1544,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-53.73791910902297</v>
+        <v>-52.18665329674417</v>
       </c>
     </row>
     <row r="149">
@@ -1552,7 +1552,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-50.84362756173321</v>
+        <v>-51.18224583075511</v>
       </c>
     </row>
     <row r="150">
@@ -1560,7 +1560,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-51.18960952155044</v>
+        <v>-51.0987926649729</v>
       </c>
     </row>
     <row r="151">
@@ -1568,7 +1568,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-52.90700851710665</v>
+        <v>-53.08204141594197</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
+++ b/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-50.65002438850722</v>
+        <v>-50.61697333549277</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-57.29699885063077</v>
+        <v>-56.79836289163155</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-56.91712580599046</v>
+        <v>-56.87847752710985</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-51.36896746707402</v>
+        <v>-51.39463491761781</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.06601927200593</v>
+        <v>-53.48523622311509</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-52.30207705055154</v>
+        <v>-51.24234090449603</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-51.34483661994725</v>
+        <v>-50.61333613605025</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-51.76340966436231</v>
+        <v>-51.06839295177574</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-51.38100890085942</v>
+        <v>-50.77724508163421</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-51.1201588925793</v>
+        <v>-51.04480648963886</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-51.06895108511668</v>
+        <v>-51.04065373002186</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-50.56792682117859</v>
+        <v>-50.5761402648169</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-50.67197214200327</v>
+        <v>-51.65901472833009</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-50.95752914759925</v>
+        <v>-50.9153217041937</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-50.61344805582663</v>
+        <v>-50.64639281798245</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.71588904083051</v>
+        <v>-50.74837579633829</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-52.31850282507326</v>
+        <v>-50.95794711373399</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-51.1534090253917</v>
+        <v>-51.07236893091984</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-50.87430459515146</v>
+        <v>-50.53643052962848</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-52.23433903459757</v>
+        <v>-50.8246525519821</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-50.57476899414051</v>
+        <v>-50.56386715609374</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-50.7791888166532</v>
+        <v>-50.82882263326326</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-52.48882161292084</v>
+        <v>-50.7095952068482</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-51.89562928020457</v>
+        <v>-51.88898276696396</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-52.72345679479326</v>
+        <v>-52.51356981031976</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-55.86577632520775</v>
+        <v>-54.10858052299888</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-51.22209502492366</v>
+        <v>-51.02194456906575</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-51.70321393346803</v>
+        <v>-51.43061518654363</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-51.38785539705297</v>
+        <v>-52.36849767867199</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-50.941531970776</v>
+        <v>-50.99065575506787</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-50.88600489777897</v>
+        <v>-50.84074216388972</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-50.61522728939195</v>
+        <v>-50.5644499381332</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-51.31751630293729</v>
+        <v>-51.11888722554551</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-50.9311907034457</v>
+        <v>-50.98524022157424</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-51.00594702634995</v>
+        <v>-50.9849639164737</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-50.87653113389326</v>
+        <v>-50.79831499170432</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-51.06637713239052</v>
+        <v>-51.0527017170769</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-51.15753622508691</v>
+        <v>-51.10445792331655</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-50.73418306635111</v>
+        <v>-50.72911331790345</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-51.88696263888905</v>
+        <v>-50.5761039068013</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-50.73136106269721</v>
+        <v>-50.78827500253394</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +704,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-52.18833812271642</v>
+        <v>-50.81379418402074</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-50.62544351839684</v>
+        <v>-51.69671848532476</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-50.93313614558118</v>
+        <v>-50.90454308223183</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-50.9529230908988</v>
+        <v>-50.90916096288414</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-50.86139838696151</v>
+        <v>-50.87870595640442</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-50.94295080867514</v>
+        <v>-50.67289810179222</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-52.55912835452931</v>
+        <v>-50.92431885574531</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-52.09857071083969</v>
+        <v>-52.38116840138361</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-54.44651044031124</v>
+        <v>-54.57999311004864</v>
       </c>
     </row>
     <row r="52">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-52.210887646701</v>
+        <v>-52.48927219764076</v>
       </c>
     </row>
     <row r="53">
@@ -784,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-56.74255521514956</v>
+        <v>-55.90063784093098</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-53.41867149546837</v>
+        <v>-53.78366619837188</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-54.48329311398883</v>
+        <v>-54.58016466491167</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-53.03509379654097</v>
+        <v>-52.55119928007073</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-50.90761294210287</v>
+        <v>-51.21369080087782</v>
       </c>
     </row>
     <row r="58">
@@ -824,7 +824,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-51.92925756941087</v>
+        <v>-51.92876367635509</v>
       </c>
     </row>
     <row r="59">
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-51.47135262642374</v>
+        <v>-51.48746735563005</v>
       </c>
     </row>
     <row r="60">
@@ -840,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-51.38940400539745</v>
+        <v>-51.27993198979335</v>
       </c>
     </row>
     <row r="61">
@@ -848,7 +848,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-52.88695907535146</v>
+        <v>-53.23790456475662</v>
       </c>
     </row>
     <row r="62">
@@ -856,7 +856,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-51.36863117401835</v>
+        <v>-51.2119069898253</v>
       </c>
     </row>
     <row r="63">
@@ -864,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-50.7750019628285</v>
+        <v>-50.76074897284118</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-51.05215596232205</v>
+        <v>-51.06370591200703</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-51.27528083996728</v>
+        <v>-51.25128703671553</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-50.66446385159031</v>
+        <v>-50.59860416528613</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-50.57067784537602</v>
+        <v>-50.58791675863981</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-50.66362556118467</v>
+        <v>-50.66221015783933</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +912,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-50.62230537098024</v>
+        <v>-50.60089007266635</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-50.78572031632451</v>
+        <v>-50.66738100364078</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-50.65497317711508</v>
+        <v>-51.98121518568682</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-50.88445884318109</v>
+        <v>-51.35300365069934</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-50.72825858500516</v>
+        <v>-50.83115334408327</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-50.4704081589405</v>
+        <v>-50.46025031845691</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-50.61161180239563</v>
+        <v>-50.69606152316888</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-50.52079841686588</v>
+        <v>-50.56486210995673</v>
       </c>
     </row>
     <row r="77">
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-51.4201744522169</v>
+        <v>-51.01085214888723</v>
       </c>
     </row>
     <row r="78">
@@ -984,7 +984,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-50.57801651147042</v>
+        <v>-50.64462038720719</v>
       </c>
     </row>
     <row r="79">
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-52.32248765034756</v>
+        <v>-51.26174091194294</v>
       </c>
     </row>
     <row r="80">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-50.63655450165072</v>
+        <v>-50.57342790745979</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-50.75528371051173</v>
+        <v>-50.87503486127933</v>
       </c>
     </row>
     <row r="82">
@@ -1016,7 +1016,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-51.1599941508208</v>
+        <v>-51.08111382461944</v>
       </c>
     </row>
     <row r="83">
@@ -1024,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-50.99433011080998</v>
+        <v>-50.85562979665979</v>
       </c>
     </row>
     <row r="84">
@@ -1032,7 +1032,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-72.54764812076799</v>
+        <v>-73.03432059807697</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-53.37958882659125</v>
+        <v>-53.6116060053292</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-61.46738109897865</v>
+        <v>-51.40320353426893</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-52.6878546936243</v>
+        <v>-52.99728902121376</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-51.07453407328359</v>
+        <v>-51.53317804142717</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-51.38637142631071</v>
+        <v>-50.77889924563603</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-50.70569645719919</v>
+        <v>-50.70833873538481</v>
       </c>
     </row>
     <row r="91">
@@ -1088,7 +1088,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-50.80926854771828</v>
+        <v>-50.84059906281184</v>
       </c>
     </row>
     <row r="92">
@@ -1096,7 +1096,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-50.7811603716528</v>
+        <v>-50.85283537002433</v>
       </c>
     </row>
     <row r="93">
@@ -1104,7 +1104,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-50.76965449464707</v>
+        <v>-50.68142490005737</v>
       </c>
     </row>
     <row r="94">
@@ -1112,7 +1112,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-50.83448959594114</v>
+        <v>-50.95914388245008</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-51.02879471793703</v>
+        <v>-51.06701413552493</v>
       </c>
     </row>
     <row r="96">
@@ -1128,7 +1128,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-65.44242946090175</v>
+        <v>-64.803249955347</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-63.74624371155503</v>
+        <v>-51.98195099113196</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-54.93829170854386</v>
+        <v>-53.9406826944494</v>
       </c>
     </row>
     <row r="99">
@@ -1152,7 +1152,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-53.25310787009212</v>
+        <v>-50.8767383176928</v>
       </c>
     </row>
     <row r="100">
@@ -1160,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-50.89709838566693</v>
+        <v>-50.87488227968966</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-50.61141942887878</v>
+        <v>-50.64165874212534</v>
       </c>
     </row>
     <row r="102">
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-50.65674285853875</v>
+        <v>-50.65430323714018</v>
       </c>
     </row>
     <row r="103">
@@ -1184,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-50.74931347779822</v>
+        <v>-50.76175080276217</v>
       </c>
     </row>
     <row r="104">
@@ -1192,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-50.75887044264059</v>
+        <v>-50.79113703824387</v>
       </c>
     </row>
     <row r="105">
@@ -1200,7 +1200,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-51.95314621756623</v>
+        <v>-51.05863908662848</v>
       </c>
     </row>
     <row r="106">
@@ -1208,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-51.28389989640601</v>
+        <v>-50.97219842460909</v>
       </c>
     </row>
     <row r="107">
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-56.57062691684811</v>
+        <v>-55.79131363839915</v>
       </c>
     </row>
     <row r="108">
@@ -1224,7 +1224,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-50.50906740531035</v>
+        <v>-51.28015597003304</v>
       </c>
     </row>
     <row r="109">
@@ -1232,7 +1232,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-50.53177164534349</v>
+        <v>-50.57608974977011</v>
       </c>
     </row>
     <row r="110">
@@ -1240,7 +1240,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-50.9235467310799</v>
+        <v>-51.13572535779059</v>
       </c>
     </row>
     <row r="111">
@@ -1248,7 +1248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-51.05868452222924</v>
+        <v>-51.03956701184534</v>
       </c>
     </row>
     <row r="112">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-50.68261140757015</v>
+        <v>-50.64179617881238</v>
       </c>
     </row>
     <row r="113">
@@ -1264,7 +1264,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-50.68226037293004</v>
+        <v>-50.68942463730439</v>
       </c>
     </row>
     <row r="114">
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-50.5893094434694</v>
+        <v>-50.59907178788441</v>
       </c>
     </row>
     <row r="115">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-50.63682721860383</v>
+        <v>-50.7059513467268</v>
       </c>
     </row>
     <row r="116">
@@ -1288,7 +1288,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-53.16108921204506</v>
+        <v>-52.72103398318663</v>
       </c>
     </row>
     <row r="117">
@@ -1296,7 +1296,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-55.55904161036828</v>
+        <v>-55.39296427430609</v>
       </c>
     </row>
     <row r="118">
@@ -1304,7 +1304,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-51.68079804730417</v>
+        <v>-51.5187243066927</v>
       </c>
     </row>
     <row r="119">
@@ -1312,7 +1312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-51.4529100295583</v>
+        <v>-51.546740990602</v>
       </c>
     </row>
     <row r="120">
@@ -1320,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-50.55739311532064</v>
+        <v>-50.75558288260494</v>
       </c>
     </row>
     <row r="121">
@@ -1328,7 +1328,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-50.66807320420304</v>
+        <v>-50.65119720564478</v>
       </c>
     </row>
     <row r="122">
@@ -1336,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-51.60772946556137</v>
+        <v>-51.12080431167031</v>
       </c>
     </row>
     <row r="123">
@@ -1344,7 +1344,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-52.38543905689404</v>
+        <v>-50.66464329272055</v>
       </c>
     </row>
     <row r="124">
@@ -1352,7 +1352,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-50.7085846288681</v>
+        <v>-50.67627893187244</v>
       </c>
     </row>
     <row r="125">
@@ -1360,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-50.71922177732596</v>
+        <v>-50.68513149386013</v>
       </c>
     </row>
     <row r="126">
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-50.5567330747732</v>
+        <v>-50.54381386328997</v>
       </c>
     </row>
     <row r="127">
@@ -1376,7 +1376,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-60.19803846524266</v>
+        <v>-50.7454042913908</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1384,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-50.62615064630857</v>
+        <v>-50.54780259183219</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1392,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-50.60217392644028</v>
+        <v>-50.61529246215046</v>
       </c>
     </row>
     <row r="130">
@@ -1400,7 +1400,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-50.57159236627925</v>
+        <v>-50.53844995923922</v>
       </c>
     </row>
     <row r="131">
@@ -1408,7 +1408,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-50.84248738568959</v>
+        <v>-50.81658676975191</v>
       </c>
     </row>
     <row r="132">
@@ -1416,7 +1416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-52.01734376444182</v>
+        <v>-52.21088647897346</v>
       </c>
     </row>
     <row r="133">
@@ -1424,7 +1424,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-50.79049025453309</v>
+        <v>-50.86751896333445</v>
       </c>
     </row>
     <row r="134">
@@ -1432,7 +1432,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-51.68955956149956</v>
+        <v>-50.69427238651628</v>
       </c>
     </row>
     <row r="135">
@@ -1440,7 +1440,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-50.675518951645</v>
+        <v>-50.71671416792785</v>
       </c>
     </row>
     <row r="136">
@@ -1448,7 +1448,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-50.58695536464571</v>
+        <v>-50.51811798102847</v>
       </c>
     </row>
     <row r="137">
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-50.67585117768987</v>
+        <v>-50.72008012142638</v>
       </c>
     </row>
     <row r="138">
@@ -1464,7 +1464,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-50.80815758898925</v>
+        <v>-51.34222291978075</v>
       </c>
     </row>
     <row r="139">
@@ -1472,7 +1472,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-50.49066285448077</v>
+        <v>-50.47293144510048</v>
       </c>
     </row>
     <row r="140">
@@ -1480,7 +1480,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-50.91279777297783</v>
+        <v>-50.91083640465944</v>
       </c>
     </row>
     <row r="141">
@@ -1488,7 +1488,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-50.48165616521612</v>
+        <v>-50.47500009017946</v>
       </c>
     </row>
     <row r="142">
@@ -1496,7 +1496,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-50.65882492024765</v>
+        <v>-50.64741697592017</v>
       </c>
     </row>
     <row r="143">
@@ -1504,7 +1504,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-51.92426697362056</v>
+        <v>-53.40720488739611</v>
       </c>
     </row>
     <row r="144">
@@ -1512,7 +1512,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-51.12325556257571</v>
+        <v>-51.22334454674996</v>
       </c>
     </row>
     <row r="145">
@@ -1520,7 +1520,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-60.95907234666635</v>
+        <v>-51.00321717675067</v>
       </c>
     </row>
     <row r="146">
@@ -1528,7 +1528,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-51.02718024722703</v>
+        <v>-50.91522174629154</v>
       </c>
     </row>
     <row r="147">
@@ -1536,7 +1536,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-51.47312191585123</v>
+        <v>-51.34913426012327</v>
       </c>
     </row>
     <row r="148">
@@ -1544,7 +1544,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-52.18665329674417</v>
+        <v>-52.35781969924825</v>
       </c>
     </row>
     <row r="149">
@@ -1552,7 +1552,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-51.18224583075511</v>
+        <v>-51.04425708829045</v>
       </c>
     </row>
     <row r="150">
@@ -1560,7 +1560,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-51.0987926649729</v>
+        <v>-52.41866711010262</v>
       </c>
     </row>
     <row r="151">
@@ -1568,7 +1568,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-53.08204141594197</v>
+        <v>-52.67563639399987</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
+++ b/RNN_python/schd_sam_output_data/seq2seq_error_gauss.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-50.61697333549277</v>
+        <v>-101.1233398379801</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-56.79836289163155</v>
+        <v>-56.49675379436223</v>
       </c>
     </row>
     <row r="4">
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-56.87847752710985</v>
+        <v>-56.45113877758638</v>
       </c>
     </row>
     <row r="5">
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-51.39463491761781</v>
+        <v>-51.4078723576633</v>
       </c>
     </row>
     <row r="6">
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-53.48523622311509</v>
+        <v>-52.84028413679662</v>
       </c>
     </row>
     <row r="7">
@@ -416,7 +416,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-51.24234090449603</v>
+        <v>-51.38473999637262</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-50.61333613605025</v>
+        <v>-50.78634711170939</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-51.06839295177574</v>
+        <v>-51.02592393863942</v>
       </c>
     </row>
     <row r="10">
@@ -440,7 +440,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-50.77724508163421</v>
+        <v>-50.69836072458772</v>
       </c>
     </row>
     <row r="11">
@@ -448,7 +448,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-51.04480648963886</v>
+        <v>-50.55029518228614</v>
       </c>
     </row>
     <row r="12">
@@ -456,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-51.04065373002186</v>
+        <v>-51.06599182291396</v>
       </c>
     </row>
     <row r="13">
@@ -464,7 +464,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-50.5761402648169</v>
+        <v>-50.70725768267374</v>
       </c>
     </row>
     <row r="14">
@@ -472,7 +472,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-51.65901472833009</v>
+        <v>-61.77550728656384</v>
       </c>
     </row>
     <row r="15">
@@ -480,7 +480,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-50.9153217041937</v>
+        <v>-50.90988335161251</v>
       </c>
     </row>
     <row r="16">
@@ -488,7 +488,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-50.64639281798245</v>
+        <v>-50.62782012041101</v>
       </c>
     </row>
     <row r="17">
@@ -496,7 +496,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-50.74837579633829</v>
+        <v>-50.74718067626435</v>
       </c>
     </row>
     <row r="18">
@@ -504,7 +504,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-50.95794711373399</v>
+        <v>-51.00881133829439</v>
       </c>
     </row>
     <row r="19">
@@ -512,7 +512,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-51.07236893091984</v>
+        <v>-53.39050791190451</v>
       </c>
     </row>
     <row r="20">
@@ -520,7 +520,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-50.53643052962848</v>
+        <v>-50.54537727803565</v>
       </c>
     </row>
     <row r="21">
@@ -528,7 +528,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-50.8246525519821</v>
+        <v>-50.88025537045982</v>
       </c>
     </row>
     <row r="22">
@@ -536,7 +536,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-50.56386715609374</v>
+        <v>-50.63109550369584</v>
       </c>
     </row>
     <row r="23">
@@ -544,7 +544,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-50.82882263326326</v>
+        <v>-50.79761596405004</v>
       </c>
     </row>
     <row r="24">
@@ -552,7 +552,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-50.7095952068482</v>
+        <v>-50.79753122776884</v>
       </c>
     </row>
     <row r="25">
@@ -560,7 +560,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-51.88898276696396</v>
+        <v>-51.35665472796605</v>
       </c>
     </row>
     <row r="26">
@@ -568,7 +568,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-52.51356981031976</v>
+        <v>-51.94040328050004</v>
       </c>
     </row>
     <row r="27">
@@ -576,7 +576,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-54.10858052299888</v>
+        <v>-55.11528294197107</v>
       </c>
     </row>
     <row r="28">
@@ -584,7 +584,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-51.02194456906575</v>
+        <v>-51.07516768008436</v>
       </c>
     </row>
     <row r="29">
@@ -592,7 +592,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-51.43061518654363</v>
+        <v>-51.78349971199925</v>
       </c>
     </row>
     <row r="30">
@@ -600,7 +600,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-52.36849767867199</v>
+        <v>-51.2146455327495</v>
       </c>
     </row>
     <row r="31">
@@ -608,7 +608,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-50.99065575506787</v>
+        <v>-50.84929398380585</v>
       </c>
     </row>
     <row r="32">
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-50.84074216388972</v>
+        <v>-50.89990595364605</v>
       </c>
     </row>
     <row r="33">
@@ -624,7 +624,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-50.5644499381332</v>
+        <v>-50.8907160819556</v>
       </c>
     </row>
     <row r="34">
@@ -632,7 +632,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-51.11888722554551</v>
+        <v>-51.16401773770429</v>
       </c>
     </row>
     <row r="35">
@@ -640,7 +640,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-50.98524022157424</v>
+        <v>-50.84591277140429</v>
       </c>
     </row>
     <row r="36">
@@ -648,7 +648,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-50.9849639164737</v>
+        <v>-50.93029888659224</v>
       </c>
     </row>
     <row r="37">
@@ -656,7 +656,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-50.79831499170432</v>
+        <v>-51.32755573698891</v>
       </c>
     </row>
     <row r="38">
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-51.0527017170769</v>
+        <v>-50.86074103155208</v>
       </c>
     </row>
     <row r="39">
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-51.10445792331655</v>
+        <v>-51.19159191581958</v>
       </c>
     </row>
     <row r="40">
@@ -680,7 +680,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-50.72911331790345</v>
+        <v>-51.30683303420683</v>
       </c>
     </row>
     <row r="41">
@@ -688,7 +688,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-50.5761039068013</v>
+        <v>-50.59141259851888</v>
       </c>
     </row>
     <row r="42">
@@ -696,7 +696,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-50.78827500253394</v>
+        <v>-50.7975993541521</v>
       </c>
     </row>
     <row r="43">
@@ -704,7 +704,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-50.81379418402074</v>
+        <v>-50.83543695677186</v>
       </c>
     </row>
     <row r="44">
@@ -712,7 +712,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-51.69671848532476</v>
+        <v>-50.49187472540748</v>
       </c>
     </row>
     <row r="45">
@@ -720,7 +720,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-50.90454308223183</v>
+        <v>-50.94300590078779</v>
       </c>
     </row>
     <row r="46">
@@ -728,7 +728,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-50.90916096288414</v>
+        <v>-53.6135305986632</v>
       </c>
     </row>
     <row r="47">
@@ -736,7 +736,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-50.87870595640442</v>
+        <v>-51.0812018904355</v>
       </c>
     </row>
     <row r="48">
@@ -744,7 +744,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-50.67289810179222</v>
+        <v>-50.65879667291718</v>
       </c>
     </row>
     <row r="49">
@@ -752,7 +752,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-50.92431885574531</v>
+        <v>-51.02679378502069</v>
       </c>
     </row>
     <row r="50">
@@ -760,7 +760,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-52.38116840138361</v>
+        <v>-52.27994170134887</v>
       </c>
     </row>
     <row r="51">
@@ -768,7 +768,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-54.57999311004864</v>
+        <v>-51.30692407443883</v>
       </c>
     </row>
     <row r="52">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-52.48927219764076</v>
+        <v>-51.82263346285205</v>
       </c>
     </row>
     <row r="53">
@@ -784,7 +784,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-55.90063784093098</v>
+        <v>-56.75888726476242</v>
       </c>
     </row>
     <row r="54">
@@ -792,7 +792,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-53.78366619837188</v>
+        <v>-57.34275558669436</v>
       </c>
     </row>
     <row r="55">
@@ -800,7 +800,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-54.58016466491167</v>
+        <v>-55.2350695055631</v>
       </c>
     </row>
     <row r="56">
@@ -808,7 +808,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-52.55119928007073</v>
+        <v>-53.14324922372924</v>
       </c>
     </row>
     <row r="57">
@@ -816,7 +816,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-51.21369080087782</v>
+        <v>-50.68157648845972</v>
       </c>
     </row>
     <row r="58">
@@ -824,7 +824,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-51.92876367635509</v>
+        <v>-52.23348044882782</v>
       </c>
     </row>
     <row r="59">
@@ -832,7 +832,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-51.48746735563005</v>
+        <v>-51.44635286791046</v>
       </c>
     </row>
     <row r="60">
@@ -840,7 +840,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-51.27993198979335</v>
+        <v>-51.30239384864934</v>
       </c>
     </row>
     <row r="61">
@@ -848,7 +848,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-53.23790456475662</v>
+        <v>-52.72303763851158</v>
       </c>
     </row>
     <row r="62">
@@ -856,7 +856,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-51.2119069898253</v>
+        <v>-51.29068670197655</v>
       </c>
     </row>
     <row r="63">
@@ -864,7 +864,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-50.76074897284118</v>
+        <v>-50.79946833948803</v>
       </c>
     </row>
     <row r="64">
@@ -872,7 +872,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-51.06370591200703</v>
+        <v>-50.98811724375359</v>
       </c>
     </row>
     <row r="65">
@@ -880,7 +880,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-51.25128703671553</v>
+        <v>-51.09435969319227</v>
       </c>
     </row>
     <row r="66">
@@ -888,7 +888,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-50.59860416528613</v>
+        <v>-50.58698514350543</v>
       </c>
     </row>
     <row r="67">
@@ -896,7 +896,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-50.58791675863981</v>
+        <v>-51.01851318508896</v>
       </c>
     </row>
     <row r="68">
@@ -904,7 +904,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-50.66221015783933</v>
+        <v>-105.6918540226577</v>
       </c>
     </row>
     <row r="69">
@@ -912,7 +912,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-50.60089007266635</v>
+        <v>-50.53026200008711</v>
       </c>
     </row>
     <row r="70">
@@ -920,7 +920,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-50.66738100364078</v>
+        <v>-50.71928123453349</v>
       </c>
     </row>
     <row r="71">
@@ -928,7 +928,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-51.98121518568682</v>
+        <v>-50.72617920428166</v>
       </c>
     </row>
     <row r="72">
@@ -936,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-51.35300365069934</v>
+        <v>-50.85100021315573</v>
       </c>
     </row>
     <row r="73">
@@ -944,7 +944,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-50.83115334408327</v>
+        <v>-50.68720150242365</v>
       </c>
     </row>
     <row r="74">
@@ -952,7 +952,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-50.46025031845691</v>
+        <v>-50.44364989706142</v>
       </c>
     </row>
     <row r="75">
@@ -960,7 +960,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-50.69606152316888</v>
+        <v>-50.66326275562098</v>
       </c>
     </row>
     <row r="76">
@@ -968,7 +968,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-50.56486210995673</v>
+        <v>-50.53945514215288</v>
       </c>
     </row>
     <row r="77">
@@ -976,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-51.01085214888723</v>
+        <v>-50.9474946291073</v>
       </c>
     </row>
     <row r="78">
@@ -984,7 +984,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-50.64462038720719</v>
+        <v>-50.71256629740282</v>
       </c>
     </row>
     <row r="79">
@@ -992,7 +992,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-51.26174091194294</v>
+        <v>-51.03334206110654</v>
       </c>
     </row>
     <row r="80">
@@ -1000,7 +1000,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-50.57342790745979</v>
+        <v>-50.51315883822217</v>
       </c>
     </row>
     <row r="81">
@@ -1008,7 +1008,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-50.87503486127933</v>
+        <v>-50.68872783423048</v>
       </c>
     </row>
     <row r="82">
@@ -1016,7 +1016,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-51.08111382461944</v>
+        <v>-50.97832103137025</v>
       </c>
     </row>
     <row r="83">
@@ -1024,7 +1024,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-50.85562979665979</v>
+        <v>-50.93786852931239</v>
       </c>
     </row>
     <row r="84">
@@ -1032,7 +1032,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-73.03432059807697</v>
+        <v>-73.44750032875493</v>
       </c>
     </row>
     <row r="85">
@@ -1040,7 +1040,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-53.6116060053292</v>
+        <v>-52.15551252473425</v>
       </c>
     </row>
     <row r="86">
@@ -1048,7 +1048,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-51.40320353426893</v>
+        <v>-51.34572354019743</v>
       </c>
     </row>
     <row r="87">
@@ -1056,7 +1056,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-52.99728902121376</v>
+        <v>-52.70050820316656</v>
       </c>
     </row>
     <row r="88">
@@ -1064,7 +1064,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-51.53317804142717</v>
+        <v>-51.85482887908926</v>
       </c>
     </row>
     <row r="89">
@@ -1072,7 +1072,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-50.77889924563603</v>
+        <v>-50.84351603031597</v>
       </c>
     </row>
     <row r="90">
@@ -1080,7 +1080,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-50.70833873538481</v>
+        <v>-50.65053984105543</v>
       </c>
     </row>
     <row r="91">
@@ -1088,7 +1088,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-50.84059906281184</v>
+        <v>-51.24552414476527</v>
       </c>
     </row>
     <row r="92">
@@ -1096,7 +1096,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-50.85283537002433</v>
+        <v>-50.73875757095733</v>
       </c>
     </row>
     <row r="93">
@@ -1104,7 +1104,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-50.68142490005737</v>
+        <v>-50.94021707073883</v>
       </c>
     </row>
     <row r="94">
@@ -1112,7 +1112,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-50.95914388245008</v>
+        <v>-50.93743108686103</v>
       </c>
     </row>
     <row r="95">
@@ -1120,7 +1120,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-51.06701413552493</v>
+        <v>-50.97879752618712</v>
       </c>
     </row>
     <row r="96">
@@ -1128,7 +1128,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-64.803249955347</v>
+        <v>-65.49521342603805</v>
       </c>
     </row>
     <row r="97">
@@ -1136,7 +1136,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>-51.98195099113196</v>
+        <v>-51.79244746494431</v>
       </c>
     </row>
     <row r="98">
@@ -1144,7 +1144,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>-53.9406826944494</v>
+        <v>-53.03239332386136</v>
       </c>
     </row>
     <row r="99">
@@ -1152,7 +1152,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>-50.8767383176928</v>
+        <v>-50.85165340766751</v>
       </c>
     </row>
     <row r="100">
@@ -1160,7 +1160,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>-50.87488227968966</v>
+        <v>-50.82342426563907</v>
       </c>
     </row>
     <row r="101">
@@ -1168,7 +1168,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>-50.64165874212534</v>
+        <v>-50.6147093222549</v>
       </c>
     </row>
     <row r="102">
@@ -1176,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>-50.65430323714018</v>
+        <v>-50.76636053666014</v>
       </c>
     </row>
     <row r="103">
@@ -1184,7 +1184,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>-50.76175080276217</v>
+        <v>-50.80461097605728</v>
       </c>
     </row>
     <row r="104">
@@ -1192,7 +1192,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>-50.79113703824387</v>
+        <v>-50.76068928819842</v>
       </c>
     </row>
     <row r="105">
@@ -1200,7 +1200,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>-51.05863908662848</v>
+        <v>-51.0217517055987</v>
       </c>
     </row>
     <row r="106">
@@ -1208,7 +1208,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>-50.97219842460909</v>
+        <v>-50.94701466536726</v>
       </c>
     </row>
     <row r="107">
@@ -1216,7 +1216,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>-55.79131363839915</v>
+        <v>-56.26241310185188</v>
       </c>
     </row>
     <row r="108">
@@ -1224,7 +1224,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>-51.28015597003304</v>
+        <v>-50.46908891701983</v>
       </c>
     </row>
     <row r="109">
@@ -1232,7 +1232,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>-50.57608974977011</v>
+        <v>-50.5085706634183</v>
       </c>
     </row>
     <row r="110">
@@ -1240,7 +1240,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>-51.13572535779059</v>
+        <v>-51.38595473709179</v>
       </c>
     </row>
     <row r="111">
@@ -1248,7 +1248,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>-51.03956701184534</v>
+        <v>-51.05433561504552</v>
       </c>
     </row>
     <row r="112">
@@ -1256,7 +1256,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>-50.64179617881238</v>
+        <v>-50.54753174261074</v>
       </c>
     </row>
     <row r="113">
@@ -1264,7 +1264,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>-50.68942463730439</v>
+        <v>-50.73464702812254</v>
       </c>
     </row>
     <row r="114">
@@ -1272,7 +1272,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>-50.59907178788441</v>
+        <v>-50.65775470790469</v>
       </c>
     </row>
     <row r="115">
@@ -1280,7 +1280,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>-50.7059513467268</v>
+        <v>-50.63373931584672</v>
       </c>
     </row>
     <row r="116">
@@ -1288,7 +1288,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>-52.72103398318663</v>
+        <v>-52.79415320124854</v>
       </c>
     </row>
     <row r="117">
@@ -1296,7 +1296,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>-55.39296427430609</v>
+        <v>-54.63154054532559</v>
       </c>
     </row>
     <row r="118">
@@ -1304,7 +1304,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>-51.5187243066927</v>
+        <v>-51.94820977892493</v>
       </c>
     </row>
     <row r="119">
@@ -1312,7 +1312,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>-51.546740990602</v>
+        <v>-50.72478866366939</v>
       </c>
     </row>
     <row r="120">
@@ -1320,7 +1320,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>-50.75558288260494</v>
+        <v>-50.55892103114034</v>
       </c>
     </row>
     <row r="121">
@@ -1328,7 +1328,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>-50.65119720564478</v>
+        <v>-50.9927932119807</v>
       </c>
     </row>
     <row r="122">
@@ -1336,7 +1336,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>-51.12080431167031</v>
+        <v>-50.83982481234574</v>
       </c>
     </row>
     <row r="123">
@@ -1344,7 +1344,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>-50.66464329272055</v>
+        <v>-50.68574259106209</v>
       </c>
     </row>
     <row r="124">
@@ -1352,7 +1352,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>-50.67627893187244</v>
+        <v>-50.4635956222464</v>
       </c>
     </row>
     <row r="125">
@@ -1360,7 +1360,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>-50.68513149386013</v>
+        <v>-50.76777770373718</v>
       </c>
     </row>
     <row r="126">
@@ -1368,7 +1368,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>-50.54381386328997</v>
+        <v>-50.5196328653163</v>
       </c>
     </row>
     <row r="127">
@@ -1376,7 +1376,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>-50.7454042913908</v>
+        <v>-50.70343578215202</v>
       </c>
     </row>
     <row r="128">
@@ -1384,7 +1384,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>-50.54780259183219</v>
+        <v>-50.64559251098083</v>
       </c>
     </row>
     <row r="129">
@@ -1392,7 +1392,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>-50.61529246215046</v>
+        <v>-50.56342443907867</v>
       </c>
     </row>
     <row r="130">
@@ -1400,7 +1400,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>-50.53844995923922</v>
+        <v>-50.56314874052219</v>
       </c>
     </row>
     <row r="131">
@@ -1408,7 +1408,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>-50.81658676975191</v>
+        <v>-50.88717604802633</v>
       </c>
     </row>
     <row r="132">
@@ -1416,7 +1416,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>-52.21088647897346</v>
+        <v>-52.69274496637712</v>
       </c>
     </row>
     <row r="133">
@@ -1424,7 +1424,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>-50.86751896333445</v>
+        <v>-50.6861342666405</v>
       </c>
     </row>
     <row r="134">
@@ -1432,7 +1432,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>-50.69427238651628</v>
+        <v>-50.70142581348836</v>
       </c>
     </row>
     <row r="135">
@@ -1440,7 +1440,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>-50.71671416792785</v>
+        <v>-50.70241860561494</v>
       </c>
     </row>
     <row r="136">
@@ -1448,7 +1448,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>-50.51811798102847</v>
+        <v>-50.62954241425576</v>
       </c>
     </row>
     <row r="137">
@@ -1456,7 +1456,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>-50.72008012142638</v>
+        <v>-50.70421957279187</v>
       </c>
     </row>
     <row r="138">
@@ -1464,7 +1464,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>-51.34222291978075</v>
+        <v>-50.82450104205741</v>
       </c>
     </row>
     <row r="139">
@@ -1472,7 +1472,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>-50.47293144510048</v>
+        <v>-50.44986983533561</v>
       </c>
     </row>
     <row r="140">
@@ -1480,7 +1480,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>-50.91083640465944</v>
+        <v>-50.75570654158287</v>
       </c>
     </row>
     <row r="141">
@@ -1488,7 +1488,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>-50.47500009017946</v>
+        <v>-50.47204100888951</v>
       </c>
     </row>
     <row r="142">
@@ -1496,7 +1496,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>-50.64741697592017</v>
+        <v>-50.93883016418336</v>
       </c>
     </row>
     <row r="143">
@@ -1504,7 +1504,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>-53.40720488739611</v>
+        <v>-52.03752854198417</v>
       </c>
     </row>
     <row r="144">
@@ -1512,7 +1512,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>-51.22334454674996</v>
+        <v>-51.18079086860327</v>
       </c>
     </row>
     <row r="145">
@@ -1520,7 +1520,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>-51.00321717675067</v>
+        <v>-50.93404106419926</v>
       </c>
     </row>
     <row r="146">
@@ -1528,7 +1528,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>-50.91522174629154</v>
+        <v>-50.92880205067571</v>
       </c>
     </row>
     <row r="147">
@@ -1536,7 +1536,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>-51.34913426012327</v>
+        <v>-51.44022113697941</v>
       </c>
     </row>
     <row r="148">
@@ -1544,7 +1544,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>-52.35781969924825</v>
+        <v>-52.71715210884113</v>
       </c>
     </row>
     <row r="149">
@@ -1552,7 +1552,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>-51.04425708829045</v>
+        <v>-50.93467535382856</v>
       </c>
     </row>
     <row r="150">
@@ -1560,7 +1560,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>-52.41866711010262</v>
+        <v>-51.25276470660315</v>
       </c>
     </row>
     <row r="151">
@@ -1568,7 +1568,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>-52.67563639399987</v>
+        <v>-51.55426554383419</v>
       </c>
     </row>
   </sheetData>
